--- a/public/liste-de-numeros-soumis.xlsx
+++ b/public/liste-de-numeros-soumis.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,7 +348,2592 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>22558908957</v>
+        <v>22508909308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>22507754313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>22558491127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>22506490311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>22507652183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>22501452548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>22509505519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>22507652183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>22507875934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>22579169346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>22507895422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>22507587491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>22509356587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>22549930330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>22507336179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>22544575004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>22549334775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>22508154067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>22507059149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>22557345174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>22544926517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>22507450908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22557752414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>22508603008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>22509232439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>22501191396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>22501191396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>22501193200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>22549096150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>22547068030</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>22557752414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>22509142288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>22555263537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>22507240010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>22557525360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>22509990625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>22544580930</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>22509142288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>22547068030</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>22557752414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>22508329968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>22548106814</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>22557752414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>22501191396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>22557681868</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>22557681868</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>22501853774</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>22508797423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>22547963121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>22507331234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>22507331234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>22508080629</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>22503902181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>22503902181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>22508331112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>22508668808</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>22507514343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>22507514343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>22557905357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>22557905357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>22576247421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>22508729872</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>22505451801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>22555871514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>22509356184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>22548275664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>22508923115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>22548485086</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>22505542637</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>22509356184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>22577702085</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>22507270841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>22548484868</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>22548275664</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>22548485086</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>22507253818</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>22508087377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>22507114303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>22508109198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>22507798347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>22547552116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>22507320100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>22509823977</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>22507511125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>22508661826</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>22507320100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>22507114306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>22559710021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>22507511404</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>22507114306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>22507618373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>22557483045</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>22507178984</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>22507711575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>22557899493</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>22507323218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>22501129139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>22507500268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>22507851359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>22557741508</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>22557741508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>22509741846</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>22588249303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>22509329946</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>22579900291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>22508048374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>22509329946</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>22507969550</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>22507948099</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>22508661826</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>22509093105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>22507889797</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>22547834889</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>22507135280</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>22507312410</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>22549654434</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>22509727646</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>22507169860</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>22509950956</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>22508491557</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>22507394223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>22507394223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>22507317192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>22552010192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>22507080308</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>22558305681</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>22577144172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>22508082911</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>22507622721</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>22558731399</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>22508703713</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>22508603201</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>22506833187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>22555025994</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>22509345475</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>22507484360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>22507544927</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>22547704198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>22506017364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>22507544927</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>22557889949</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>22507544927</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>22509345475</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>22589123243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>22509478113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>22509689003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>22509689003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>22557052909</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>22507312858</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>22507684726</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>22557023606</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>22508909179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>22507910747</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>22507807107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>22507357955</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>22507881975</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>22507659559</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>22507941959</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>22508487558</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>22508909179</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>22502758668</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>22549396276</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>22547591521</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>22507017886</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>22548219087</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>22505614776</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>22557445868</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>22505614776</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>22507703673</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>22507532906</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>22507546121</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>22507140019</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>22507794728</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>22508409490</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>22578636785</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>22507008722</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>22502832573</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>22547148655</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>22505614776</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>22508224492</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>22508979692</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>22507532906</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>22502832573</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>22507672445</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>22509766492</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>22507432550</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>22507140019</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>22507757578</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>22505614776</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>22505491365</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>22509277083</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>22504045555</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>22507017886</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>22508522470</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>22508170068</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>22505669833</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>22557235085</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>22508240379</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>22508828996</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>22547618005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>22507114571</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>22559752080</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>22508063495</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>22547928935</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>22549666124</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>22502106539</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>22547559853</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <v>22548929345</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>22507377626</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>22503553017</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>22559381078</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>22506176063</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>22509074895</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>22505167145</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>22509257018</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>22507402542</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>22546641832</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>22509178763</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>22557121276</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>22506176063</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>22507012909</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>22509013158</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>22507175841</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>22509846266</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>22507113172</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>22507377626</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>22505167145</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>22558251197</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>22503102609</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>22507721914</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>22506176063</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>22508588101</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>22502106539</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>22508853981</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>22548929345</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>22509074895</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>22508733860</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>22507114571</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>22549666124</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>22548867442</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>22507814832</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>22507434932</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>22502106539</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>22505621609</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>22575179119</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>22509425928</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>22508346145</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>22547644043</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>22549780342</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>22501354903</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>22506120638</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <v>22557002079</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
+        <v>22507800640</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <v>22505621609</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <v>22558960999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
+        <v>22558021349</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257">
+        <v>22501736533</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258">
+        <v>22548514674</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <v>22507344934</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <v>22549780342</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261">
+        <v>22507936428</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <v>22502747945</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263">
+        <v>22508111213</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
+        <v>22507447181</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>22508040350</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <v>22509935185</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <v>22507986327</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268">
+        <v>22578516134</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269">
+        <v>22548991313</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <v>22507334768</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271">
+        <v>22508123512</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272">
+        <v>22508031062</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>22507510782</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <v>22508031052</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <v>22507074232</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>22508031052</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>22543949439</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <v>22542949439</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
+        <v>22507606678</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <v>22588336505</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>22509477604</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>22507923862</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>22544291414</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <v>22541706381</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <v>22549343434</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>22548150319</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <v>22501018182</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <v>22505838498</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>22548283267</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290">
+        <v>22508983251</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>22549320815</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292">
+        <v>22547125227</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293">
+        <v>22508499242</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294">
+        <v>22508087926</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>22548283267</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>22507399775</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>22505353664</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298">
+        <v>22557648016</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>22557107821</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300">
+        <v>22509510000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301">
+        <v>22509325702</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302">
+        <v>22508499242</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>22508226573</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>22557202092</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>22507184540</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306">
+        <v>22509165078</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307">
+        <v>22508492766</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>22507841636</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>22507074232</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310">
+        <v>22508494292</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311">
+        <v>22507074232</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312">
+        <v>22549040313</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313">
+        <v>22508403316</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>22507184056</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>22507070949</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>22507074232</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>22507802725</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>22505164575</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319">
+        <v>22578124391</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>22507213013</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>22578033103</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>22547829828</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323">
+        <v>22507172989</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>22558747998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>22507213013</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326">
+        <v>22547148959</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>22507989300</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>22508874787</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>22549544529</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330">
+        <v>22508467570</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331">
+        <v>22557107821</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>22507223968</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>22509017609</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>22557120589</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>22505359462</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>22505596000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337">
+        <v>22509017609</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>22507981465</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339">
+        <v>22508110590</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340">
+        <v>22549184715</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
+        <v>22502297012</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342">
+        <v>22507612387</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343">
+        <v>22507514321</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344">
+        <v>22508585833</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345">
+        <v>22508579085</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>22558251622</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>22567808011</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>22543918291</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349">
+        <v>22548114389</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>22549525244</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>22547519630</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352">
+        <v>22577561086</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>22547440238</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>22578820323</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355">
+        <v>22558428389</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>22507860443</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357">
+        <v>22558582540</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358">
+        <v>22507060989</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>22508233589</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360">
+        <v>22507517317</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>22507809890</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>22507074232</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363">
+        <v>22506090625</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>22507399641</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365">
+        <v>22507468275</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>22507634643</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>22521242538</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>22507075489</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369">
+        <v>22501044038</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>22509032382</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371">
+        <v>22540115064</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>22508780059</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373">
+        <v>22509144633</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374">
+        <v>22505646417</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375">
+        <v>22505188484</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>22507634643</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
+        <v>22507248291</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>22557076660</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379">
+        <v>22571013939</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380">
+        <v>22509425225</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381">
+        <v>22509425225</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382">
+        <v>22541324594</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383">
+        <v>22555540066</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384">
+        <v>22508263168</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385">
+        <v>22507319373</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>22506882972</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387">
+        <v>22548510088</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388">
+        <v>22577749739</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389">
+        <v>22558565474</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390">
+        <v>22547151432</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391">
+        <v>22559965617</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392">
+        <v>22505608655</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393">
+        <v>22508266772</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394">
+        <v>22508061548</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395">
+        <v>22508266772</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396">
+        <v>22507079144</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397">
+        <v>22508266772</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398">
+        <v>22544291414</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399">
+        <v>22544291414</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400">
+        <v>22508266772</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>22547151432</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>22508266772</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403">
+        <v>22506439043</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404">
+        <v>22547937564</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405">
+        <v>22555236098</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406">
+        <v>22509084729</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407">
+        <v>22547908195</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408">
+        <v>22508971396</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409">
+        <v>22501127701</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410">
+        <v>22506882972</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411">
+        <v>22501662832</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412">
+        <v>22508263168</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413">
+        <v>22549712208</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414">
+        <v>22503036416</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415">
+        <v>22507047843</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416">
+        <v>22508263168</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417">
+        <v>22507914434</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418">
+        <v>22501127701</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419">
+        <v>22501127701</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420">
+        <v>22508266772</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421">
+        <v>22509425225</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422">
+        <v>22549539326</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423">
+        <v>22502434379</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424">
+        <v>22509082510</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>22555495535</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426">
+        <v>22557626873</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427">
+        <v>22509727646</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428">
+        <v>22540325076</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429">
+        <v>22559994673</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430">
+        <v>22547834889</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431">
+        <v>22547834889</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432">
+        <v>22558696143</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433">
+        <v>22508959359</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434">
+        <v>22507768391</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435">
+        <v>22507889797</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436">
+        <v>22507545035</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437">
+        <v>22545701055</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438">
+        <v>22508796100</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439">
+        <v>22545922004</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440">
+        <v>22507104513</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441">
+        <v>22549314630</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442">
+        <v>22548626749</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443">
+        <v>22508974304</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444">
+        <v>22559911032</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445">
+        <v>22559310250</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446">
+        <v>22507104513</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>22507104513</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>22508469071</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>22508469071</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>22509267602</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>22509267602</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>22548720275</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>22509322829</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>22544164157</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>22507794112</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>22508008787</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>22509322829</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>22548254047</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>22501111121</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>22509322829</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>22557031562</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>22506838786</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>22547687968</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>22507577034</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>22558368615</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>22548949414</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>22577903565</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>22549155052</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>22577456894</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>22504127769</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>22507110066</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>22544767383</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>22507229398</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>22509214354</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>22508703713</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476">
+        <v>22505451801</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477">
+        <v>22568683949</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478">
+        <v>22549361587</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479">
+        <v>22506588082</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480">
+        <v>22558910033</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481">
+        <v>22547424340</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482">
+        <v>22578188026</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483">
+        <v>22545225895</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484">
+        <v>22565156851</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485">
+        <v>22506326039</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486">
+        <v>22509311772</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487">
+        <v>22508974074</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488">
+        <v>22548133839</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489">
+        <v>22507639336</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490">
+        <v>22504571257</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491">
+        <v>22549379397</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492">
+        <v>22508926211</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493">
+        <v>22545114574</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494">
+        <v>22569279847</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495">
+        <v>22545082832</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496">
+        <v>22509876244</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497">
+        <v>22501051387</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498">
+        <v>22557410373</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499">
+        <v>22588242378</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500">
+        <v>22507680064</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501">
+        <v>22555440229</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502">
+        <v>22558437932</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503">
+        <v>22548043919</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>22557111129</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>22507172519</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>22547425295</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>22508127181</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>22559149895</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>22502434279</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>22557813420</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>22505443558</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>22509018245</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>22506554787</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>22507241060</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>22508734669</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>22548252158</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>22587518334</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>22548855992</v>
       </c>
     </row>
   </sheetData>
